--- a/LabReport/Lab3/Lab3 (Basis Path  test case design).xlsx
+++ b/LabReport/Lab3/Lab3 (Basis Path  test case design).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fourbags\Desktop\ST\lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fourbags\Desktop\ST\GeoProject\LabReport\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Method</t>
   </si>
@@ -43,18 +43,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CFG (or link)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Source Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>source code with line number (or link)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CFG (each node representing a block or statement)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,59 +55,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P1: {n1, n2,…, n10}, P2:{n1, n3, …, n10}, P3: ...</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Requirements (Basis Path Coverage)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P2: {n1, n3, …, n10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2: {n1, n2, n4, n3, …, n10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>char grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A, B, C, D, F, X, "not an integer"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1: {exam=90, project=80}, T2={ …}, …</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Params (Type, Name)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1: int exam, 2: int project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Return Values</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Returns (Type, Name)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{P1, P2, P3, …}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T1 covers {P1}, T2 covers {P2}, T3 covers {P1, P3}, …</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -476,13 +428,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -514,13 +466,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -552,13 +504,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -590,13 +542,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -628,13 +580,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -666,14 +618,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1752600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -704,13 +656,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -742,14 +694,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -780,13 +732,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -818,13 +770,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -856,13 +808,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -894,13 +846,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1196,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1222,293 +1174,255 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
+      <c r="J2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="249.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="J6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="M6" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>74</v>
-      </c>
-      <c r="K6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="J7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
+    <row r="8" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LabReport/Lab3/Lab3 (Basis Path  test case design).xlsx
+++ b/LabReport/Lab3/Lab3 (Basis Path  test case design).xlsx
@@ -1148,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
